--- a/Atlas_Ebanking/bin/datadriver_Framework/InputData.xlsx
+++ b/Atlas_Ebanking/bin/datadriver_Framework/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="170">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -517,6 +517,18 @@
   </si>
   <si>
     <t>9030848855</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>9652525200</t>
+  </si>
+  <si>
+    <t>9652525100</t>
+  </si>
+  <si>
+    <t>9652525300</t>
   </si>
 </sst>
 </file>
@@ -913,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1954,12 +1966,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>